--- a/1_create_first_audio/replaces_words.xlsx
+++ b/1_create_first_audio/replaces_words.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t xml:space="preserve">original</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t xml:space="preserve">Raizen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iCLoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ai Claud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OneDrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uan draif</t>
   </si>
 </sst>
 </file>
@@ -413,10 +425,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -595,6 +607,30 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/1_create_first_audio/replaces_words.xlsx
+++ b/1_create_first_audio/replaces_words.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t xml:space="preserve">original</t>
   </si>
@@ -142,10 +142,13 @@
     <t xml:space="preserve">Raizen</t>
   </si>
   <si>
-    <t xml:space="preserve">iCLoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ai Claud</t>
+    <t xml:space="preserve">iCloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A I Claud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icloud</t>
   </si>
   <si>
     <t xml:space="preserve">OneDrive</t>
@@ -428,7 +431,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,27 +613,27 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/1_create_first_audio/replaces_words.xlsx
+++ b/1_create_first_audio/replaces_words.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t xml:space="preserve">original</t>
   </si>
@@ -37,67 +37,112 @@
     <t xml:space="preserve">A M D</t>
   </si>
   <si>
+    <t xml:space="preserve">iPAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A I pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es</t>
+  </si>
+  <si>
     <t xml:space="preserve">GB</t>
   </si>
   <si>
     <t xml:space="preserve">Gigabyte</t>
   </si>
   <si>
+    <t xml:space="preserve">ipad</t>
+  </si>
+  <si>
     <t xml:space="preserve">TB</t>
   </si>
   <si>
     <t xml:space="preserve">Terabyte</t>
   </si>
   <si>
+    <t xml:space="preserve">iPad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Z1</t>
   </si>
   <si>
     <t xml:space="preserve">Z 1</t>
   </si>
   <si>
+    <t xml:space="preserve">iMAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A I Mac</t>
+  </si>
+  <si>
     <t xml:space="preserve">eMMC</t>
   </si>
   <si>
     <t xml:space="preserve">e M M C</t>
   </si>
   <si>
+    <t xml:space="preserve">iMac</t>
+  </si>
+  <si>
     <t xml:space="preserve">1080p</t>
   </si>
   <si>
     <t xml:space="preserve">1080 p</t>
   </si>
   <si>
+    <t xml:space="preserve">imac</t>
+  </si>
+  <si>
     <t xml:space="preserve">NVMe</t>
   </si>
   <si>
     <t xml:space="preserve">N V M e</t>
   </si>
   <si>
+    <t xml:space="preserve">iPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A I Phone</t>
+  </si>
+  <si>
     <t xml:space="preserve">microSD</t>
   </si>
   <si>
     <t xml:space="preserve">micro eSe De</t>
   </si>
   <si>
+    <t xml:space="preserve">iPHONE</t>
+  </si>
+  <si>
     <t xml:space="preserve">1440p</t>
   </si>
   <si>
     <t xml:space="preserve">1440 p</t>
   </si>
   <si>
+    <t xml:space="preserve">iphone</t>
+  </si>
+  <si>
     <t xml:space="preserve">HDMI</t>
   </si>
   <si>
     <t xml:space="preserve">H D M I</t>
   </si>
   <si>
+    <t xml:space="preserve">iOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A IOES</t>
+  </si>
+  <si>
     <t xml:space="preserve">gaming</t>
   </si>
   <si>
     <t xml:space="preserve">geiming</t>
   </si>
   <si>
-    <t xml:space="preserve">es</t>
+    <t xml:space="preserve">ios</t>
   </si>
   <si>
     <t xml:space="preserve">Wh</t>
@@ -428,10 +473,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,187 +499,301 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
